--- a/sweep_Ni_summary.xlsx
+++ b/sweep_Ni_summary.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="B2" t="n">
         <v>51</v>
@@ -499,27 +499,27 @@
         <v>1000</v>
       </c>
       <c r="E2" t="n">
-        <v>58.40357303619385</v>
+        <v>68.44722652435303</v>
       </c>
       <c r="F2" t="n">
-        <v>3170</v>
+        <v>3237</v>
       </c>
       <c r="G2" t="n">
-        <v>9.170483281195629e-06</v>
+        <v>9.057732313522138e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>2.912629248896792e-08</v>
+        <v>3.012899441046102e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000975489616394043</v>
+        <v>0.001092970371246338</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004706652666296813</v>
+        <v>0.000255032026620771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>51</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="n">
         <v>51</v>
@@ -531,27 +531,27 @@
         <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>67.39612746238708</v>
+        <v>92.37700986862183</v>
       </c>
       <c r="F3" t="n">
-        <v>3231</v>
+        <v>3241</v>
       </c>
       <c r="G3" t="n">
-        <v>8.670233000884764e-06</v>
+        <v>1.048250578605803e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.188804953424551e-08</v>
+        <v>6.079635994638011e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001187503337860107</v>
+        <v>0.0009857233380898833</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000384241420383683</v>
+        <v>0.0005124270095854222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101</v>
+        <v>5001</v>
       </c>
       <c r="B4" t="n">
         <v>51</v>
@@ -563,27 +563,27 @@
         <v>1000</v>
       </c>
       <c r="E4" t="n">
-        <v>72.96714353561401</v>
+        <v>216.5833144187927</v>
       </c>
       <c r="F4" t="n">
-        <v>3259</v>
+        <v>3186</v>
       </c>
       <c r="G4" t="n">
-        <v>9.911453162203543e-06</v>
+        <v>1.182581945613492e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>4.922950580521501e-08</v>
+        <v>3.470102853952994e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001434355974197388</v>
+        <v>0.002499308902770281</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003270080729825668</v>
+        <v>0.001701516027037833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>201</v>
+        <v>10001</v>
       </c>
       <c r="B5" t="n">
         <v>51</v>
@@ -595,22 +595,22 @@
         <v>1000</v>
       </c>
       <c r="E5" t="n">
-        <v>59.83821415901184</v>
+        <v>411.6178092956543</v>
       </c>
       <c r="F5" t="n">
-        <v>3153</v>
+        <v>3251</v>
       </c>
       <c r="G5" t="n">
-        <v>1.067088305717334e-05</v>
+        <v>1.422427430952666e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>1.54127057783171e-08</v>
+        <v>9.576162938174093e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006298720836639404</v>
+        <v>0.005549792665988207</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000290766795143211</v>
+        <v>0.00283629408620121</v>
       </c>
     </row>
   </sheetData>
